--- a/tumorportal/tumorportal_ICD9.xlsx
+++ b/tumorportal/tumorportal_ICD9.xlsx
@@ -18,6 +18,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windzor</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windzor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+209 can be mapped, but never paired</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windzor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mapped to 191, removed to avoid double assignment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windzor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Matches to 189, but it is kidney cancer</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
@@ -307,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +540,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1241,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,9 +1452,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>259</v>
-      </c>
       <c r="D5" s="6">
         <v>259.2</v>
       </c>
@@ -1426,9 +1518,6 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
       <c r="D8" s="6"/>
       <c r="E8" t="s">
         <v>86</v>
@@ -1516,9 +1605,6 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12">
-        <v>196</v>
-      </c>
       <c r="D12" s="5"/>
       <c r="E12" t="s">
         <v>87</v>
@@ -1560,9 +1646,6 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
-        <v>162</v>
-      </c>
       <c r="D14" s="6"/>
       <c r="E14" t="s">
         <v>42</v>
@@ -1581,9 +1664,6 @@
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2">
-        <v>162</v>
-      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1602,9 +1682,6 @@
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16">
-        <v>191</v>
-      </c>
       <c r="D16" s="6"/>
       <c r="E16" t="s">
         <v>47</v>
@@ -1737,9 +1814,6 @@
       </c>
       <c r="B22" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="2">
-        <v>189</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>39</v>
@@ -1754,6 +1828,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
